--- a/testexcel.xlsx
+++ b/testexcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nangphyupyarwin\Documents\MyTesting\ExcelVBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonphoowai.MDCR\SampleProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC77DF-61F5-4716-A23F-DAFC3900A26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF289E-D8F3-4E09-B6BD-19F3A9B04B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="315" windowWidth="15375" windowHeight="10605" xr2:uid="{15F74D76-2192-42FC-9627-C2FD6084CA4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{15F74D76-2192-42FC-9627-C2FD6084CA4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>abc</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hello World!!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -95,7 +99,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -111,7 +115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -407,12 +411,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9222A5F-2D78-48EE-95A2-4ADF5791FD84}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
